--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Cd38-Pecam1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Cd38-Pecam1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Cd38</t>
   </si>
   <si>
     <t>Pecam1</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.9786124986394</v>
+        <v>38.12257066666666</v>
       </c>
       <c r="H2">
-        <v>22.9786124986394</v>
+        <v>114.367712</v>
       </c>
       <c r="I2">
-        <v>0.5969856758633653</v>
+        <v>0.6965023585118379</v>
       </c>
       <c r="J2">
-        <v>0.5969856758633653</v>
+        <v>0.6965023585118381</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>83.67306329335381</v>
+        <v>218.9722396666667</v>
       </c>
       <c r="N2">
-        <v>83.67306329335381</v>
+        <v>656.9167190000001</v>
       </c>
       <c r="O2">
-        <v>0.8792414935946375</v>
+        <v>0.9460661569256378</v>
       </c>
       <c r="P2">
-        <v>0.8792414935946375</v>
+        <v>0.9460661569256379</v>
       </c>
       <c r="Q2">
-        <v>1922.690897992105</v>
+        <v>8347.784680730769</v>
       </c>
       <c r="R2">
-        <v>1922.690897992105</v>
+        <v>75130.06212657693</v>
       </c>
       <c r="S2">
-        <v>0.5248945773007094</v>
+        <v>0.6589373096069373</v>
       </c>
       <c r="T2">
-        <v>0.5248945773007094</v>
+        <v>0.6589373096069375</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.9786124986394</v>
+        <v>38.12257066666666</v>
       </c>
       <c r="H3">
-        <v>22.9786124986394</v>
+        <v>114.367712</v>
       </c>
       <c r="I3">
-        <v>0.5969856758633653</v>
+        <v>0.6965023585118379</v>
       </c>
       <c r="J3">
-        <v>0.5969856758633653</v>
+        <v>0.6965023585118381</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.15486510690857</v>
+        <v>5.232695</v>
       </c>
       <c r="N3">
-        <v>5.15486510690857</v>
+        <v>15.698085</v>
       </c>
       <c r="O3">
-        <v>0.05416762716080912</v>
+        <v>0.02260777739018391</v>
       </c>
       <c r="P3">
-        <v>0.05416762716080912</v>
+        <v>0.02260777739018392</v>
       </c>
       <c r="Q3">
-        <v>118.4516477744094</v>
+        <v>199.4837849146133</v>
       </c>
       <c r="R3">
-        <v>118.4516477744094</v>
+        <v>1795.35406423152</v>
       </c>
       <c r="S3">
-        <v>0.03233729751051041</v>
+        <v>0.0157463702729737</v>
       </c>
       <c r="T3">
-        <v>0.03233729751051041</v>
+        <v>0.01574637027297371</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.9786124986394</v>
+        <v>38.12257066666666</v>
       </c>
       <c r="H4">
-        <v>22.9786124986394</v>
+        <v>114.367712</v>
       </c>
       <c r="I4">
-        <v>0.5969856758633653</v>
+        <v>0.6965023585118379</v>
       </c>
       <c r="J4">
-        <v>0.5969856758633653</v>
+        <v>0.6965023585118381</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.11489164870163</v>
+        <v>3.718869666666667</v>
       </c>
       <c r="N4">
-        <v>3.11489164870163</v>
+        <v>11.156609</v>
       </c>
       <c r="O4">
-        <v>0.03273146551343512</v>
+        <v>0.01606731857429249</v>
       </c>
       <c r="P4">
-        <v>0.03273146551343512</v>
+        <v>0.0160673185742925</v>
       </c>
       <c r="Q4">
-        <v>71.57588817076275</v>
+        <v>141.7728716676231</v>
       </c>
       <c r="R4">
-        <v>71.57588817076275</v>
+        <v>1275.955845008608</v>
       </c>
       <c r="S4">
-        <v>0.01954021606153649</v>
+        <v>0.01119092528195578</v>
       </c>
       <c r="T4">
-        <v>0.01954021606153649</v>
+        <v>0.01119092528195579</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.9786124986394</v>
+        <v>38.12257066666666</v>
       </c>
       <c r="H5">
-        <v>22.9786124986394</v>
+        <v>114.367712</v>
       </c>
       <c r="I5">
-        <v>0.5969856758633653</v>
+        <v>0.6965023585118379</v>
       </c>
       <c r="J5">
-        <v>0.5969856758633653</v>
+        <v>0.6965023585118381</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.22223290056177</v>
+        <v>3.531721333333333</v>
       </c>
       <c r="N5">
-        <v>3.22223290056177</v>
+        <v>10.595164</v>
       </c>
       <c r="O5">
-        <v>0.03385941373111827</v>
+        <v>0.01525874710988573</v>
       </c>
       <c r="P5">
-        <v>0.03385941373111827</v>
+        <v>0.01525874710988573</v>
       </c>
       <c r="Q5">
-        <v>74.04244120237577</v>
+        <v>134.6382961049742</v>
       </c>
       <c r="R5">
-        <v>74.04244120237577</v>
+        <v>1211.744664944768</v>
       </c>
       <c r="S5">
-        <v>0.02021358499060895</v>
+        <v>0.0106277533499711</v>
       </c>
       <c r="T5">
-        <v>0.02021358499060895</v>
+        <v>0.01062775334997111</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.77800143695836</v>
+        <v>2.823821666666666</v>
       </c>
       <c r="H6">
-        <v>2.77800143695836</v>
+        <v>8.471464999999998</v>
       </c>
       <c r="I6">
-        <v>0.07217263729436163</v>
+        <v>0.05159144350593012</v>
       </c>
       <c r="J6">
-        <v>0.07217263729436163</v>
+        <v>0.05159144350593013</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>83.67306329335381</v>
+        <v>218.9722396666667</v>
       </c>
       <c r="N6">
-        <v>83.67306329335381</v>
+        <v>656.9167190000001</v>
       </c>
       <c r="O6">
-        <v>0.8792414935946375</v>
+        <v>0.9460661569256378</v>
       </c>
       <c r="P6">
-        <v>0.8792414935946375</v>
+        <v>0.9460661569256379</v>
       </c>
       <c r="Q6">
-        <v>232.4438900636447</v>
+        <v>618.3385547692594</v>
       </c>
       <c r="R6">
-        <v>232.4438900636447</v>
+        <v>5565.046992923334</v>
       </c>
       <c r="S6">
-        <v>0.06345717741135856</v>
+        <v>0.04880891868790146</v>
       </c>
       <c r="T6">
-        <v>0.06345717741135856</v>
+        <v>0.04880891868790148</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.77800143695836</v>
+        <v>2.823821666666666</v>
       </c>
       <c r="H7">
-        <v>2.77800143695836</v>
+        <v>8.471464999999998</v>
       </c>
       <c r="I7">
-        <v>0.07217263729436163</v>
+        <v>0.05159144350593012</v>
       </c>
       <c r="J7">
-        <v>0.07217263729436163</v>
+        <v>0.05159144350593013</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.15486510690857</v>
+        <v>5.232695</v>
       </c>
       <c r="N7">
-        <v>5.15486510690857</v>
+        <v>15.698085</v>
       </c>
       <c r="O7">
-        <v>0.05416762716080912</v>
+        <v>0.02260777739018391</v>
       </c>
       <c r="P7">
-        <v>0.05416762716080912</v>
+        <v>0.02260777739018392</v>
       </c>
       <c r="Q7">
-        <v>14.32022267431852</v>
+        <v>14.77619751605833</v>
       </c>
       <c r="R7">
-        <v>14.32022267431852</v>
+        <v>132.985777644525</v>
       </c>
       <c r="S7">
-        <v>0.003909420508173288</v>
+        <v>0.001166367870020318</v>
       </c>
       <c r="T7">
-        <v>0.003909420508173288</v>
+        <v>0.001166367870020318</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.77800143695836</v>
+        <v>2.823821666666666</v>
       </c>
       <c r="H8">
-        <v>2.77800143695836</v>
+        <v>8.471464999999998</v>
       </c>
       <c r="I8">
-        <v>0.07217263729436163</v>
+        <v>0.05159144350593012</v>
       </c>
       <c r="J8">
-        <v>0.07217263729436163</v>
+        <v>0.05159144350593013</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.11489164870163</v>
+        <v>3.718869666666667</v>
       </c>
       <c r="N8">
-        <v>3.11489164870163</v>
+        <v>11.156609</v>
       </c>
       <c r="O8">
-        <v>0.03273146551343512</v>
+        <v>0.01606731857429249</v>
       </c>
       <c r="P8">
-        <v>0.03273146551343512</v>
+        <v>0.0160673185742925</v>
       </c>
       <c r="Q8">
-        <v>8.653173476062722</v>
+        <v>10.50142474024278</v>
       </c>
       <c r="R8">
-        <v>8.653173476062722</v>
+        <v>94.51282266218499</v>
       </c>
       <c r="S8">
-        <v>0.002362316188614059</v>
+        <v>0.0008289361585173928</v>
       </c>
       <c r="T8">
-        <v>0.002362316188614059</v>
+        <v>0.0008289361585173932</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.77800143695836</v>
+        <v>2.823821666666666</v>
       </c>
       <c r="H9">
-        <v>2.77800143695836</v>
+        <v>8.471464999999998</v>
       </c>
       <c r="I9">
-        <v>0.07217263729436163</v>
+        <v>0.05159144350593012</v>
       </c>
       <c r="J9">
-        <v>0.07217263729436163</v>
+        <v>0.05159144350593013</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.22223290056177</v>
+        <v>3.531721333333333</v>
       </c>
       <c r="N9">
-        <v>3.22223290056177</v>
+        <v>10.595164</v>
       </c>
       <c r="O9">
-        <v>0.03385941373111827</v>
+        <v>0.01525874710988573</v>
       </c>
       <c r="P9">
-        <v>0.03385941373111827</v>
+        <v>0.01525874710988573</v>
       </c>
       <c r="Q9">
-        <v>8.951367627975101</v>
+        <v>9.972951221695554</v>
       </c>
       <c r="R9">
-        <v>8.951367627975101</v>
+        <v>89.75656099525999</v>
       </c>
       <c r="S9">
-        <v>0.002443723186215727</v>
+        <v>0.0007872207894909443</v>
       </c>
       <c r="T9">
-        <v>0.002443723186215727</v>
+        <v>0.0007872207894909446</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.7344477894722</v>
+        <v>13.44991933333333</v>
       </c>
       <c r="H10">
-        <v>12.7344477894722</v>
+        <v>40.349758</v>
       </c>
       <c r="I10">
-        <v>0.3308416868422731</v>
+        <v>0.2457310819716487</v>
       </c>
       <c r="J10">
-        <v>0.3308416868422731</v>
+        <v>0.2457310819716487</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>83.67306329335381</v>
+        <v>218.9722396666667</v>
       </c>
       <c r="N10">
-        <v>83.67306329335381</v>
+        <v>656.9167190000001</v>
       </c>
       <c r="O10">
-        <v>0.8792414935946375</v>
+        <v>0.9460661569256378</v>
       </c>
       <c r="P10">
-        <v>0.8792414935946375</v>
+        <v>0.9460661569256379</v>
       </c>
       <c r="Q10">
-        <v>1065.530255894417</v>
+        <v>2945.158959756001</v>
       </c>
       <c r="R10">
-        <v>1065.530255894417</v>
+        <v>26506.43063780401</v>
       </c>
       <c r="S10">
-        <v>0.2908897388825695</v>
+        <v>0.2324778603580965</v>
       </c>
       <c r="T10">
-        <v>0.2908897388825695</v>
+        <v>0.2324778603580966</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.7344477894722</v>
+        <v>13.44991933333333</v>
       </c>
       <c r="H11">
-        <v>12.7344477894722</v>
+        <v>40.349758</v>
       </c>
       <c r="I11">
-        <v>0.3308416868422731</v>
+        <v>0.2457310819716487</v>
       </c>
       <c r="J11">
-        <v>0.3308416868422731</v>
+        <v>0.2457310819716487</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.15486510690857</v>
+        <v>5.232695</v>
       </c>
       <c r="N11">
-        <v>5.15486510690857</v>
+        <v>15.698085</v>
       </c>
       <c r="O11">
-        <v>0.05416762716080912</v>
+        <v>0.02260777739018391</v>
       </c>
       <c r="P11">
-        <v>0.05416762716080912</v>
+        <v>0.02260777739018392</v>
       </c>
       <c r="Q11">
-        <v>65.64436056569922</v>
+        <v>70.37932564593666</v>
       </c>
       <c r="R11">
-        <v>65.64436056569922</v>
+        <v>633.4139308134299</v>
       </c>
       <c r="S11">
-        <v>0.01792090914212542</v>
+        <v>0.005555433599064069</v>
       </c>
       <c r="T11">
-        <v>0.01792090914212542</v>
+        <v>0.005555433599064069</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.7344477894722</v>
+        <v>13.44991933333333</v>
       </c>
       <c r="H12">
-        <v>12.7344477894722</v>
+        <v>40.349758</v>
       </c>
       <c r="I12">
-        <v>0.3308416868422731</v>
+        <v>0.2457310819716487</v>
       </c>
       <c r="J12">
-        <v>0.3308416868422731</v>
+        <v>0.2457310819716487</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.11489164870163</v>
+        <v>3.718869666666667</v>
       </c>
       <c r="N12">
-        <v>3.11489164870163</v>
+        <v>11.156609</v>
       </c>
       <c r="O12">
-        <v>0.03273146551343512</v>
+        <v>0.01606731857429249</v>
       </c>
       <c r="P12">
-        <v>0.03273146551343512</v>
+        <v>0.0160673185742925</v>
       </c>
       <c r="Q12">
-        <v>39.66642507025389</v>
+        <v>50.01849702784689</v>
       </c>
       <c r="R12">
-        <v>39.66642507025389</v>
+        <v>450.1664732506221</v>
       </c>
       <c r="S12">
-        <v>0.01082893326328456</v>
+        <v>0.003948239577644062</v>
       </c>
       <c r="T12">
-        <v>0.01082893326328456</v>
+        <v>0.003948239577644063</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>13.44991933333333</v>
+      </c>
+      <c r="H13">
+        <v>40.349758</v>
+      </c>
+      <c r="I13">
+        <v>0.2457310819716487</v>
+      </c>
+      <c r="J13">
+        <v>0.2457310819716487</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.531721333333333</v>
+      </c>
+      <c r="N13">
+        <v>10.595164</v>
+      </c>
+      <c r="O13">
+        <v>0.01525874710988573</v>
+      </c>
+      <c r="P13">
+        <v>0.01525874710988573</v>
+      </c>
+      <c r="Q13">
+        <v>47.50136704114578</v>
+      </c>
+      <c r="R13">
+        <v>427.5123033703121</v>
+      </c>
+      <c r="S13">
+        <v>0.003749548436843988</v>
+      </c>
+      <c r="T13">
+        <v>0.003749548436843989</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>12.7344477894722</v>
-      </c>
-      <c r="H13">
-        <v>12.7344477894722</v>
-      </c>
-      <c r="I13">
-        <v>0.3308416868422731</v>
-      </c>
-      <c r="J13">
-        <v>0.3308416868422731</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>3.22223290056177</v>
-      </c>
-      <c r="N13">
-        <v>3.22223290056177</v>
-      </c>
-      <c r="O13">
-        <v>0.03385941373111827</v>
-      </c>
-      <c r="P13">
-        <v>0.03385941373111827</v>
-      </c>
-      <c r="Q13">
-        <v>41.03335663772343</v>
-      </c>
-      <c r="R13">
-        <v>41.03335663772343</v>
-      </c>
-      <c r="S13">
-        <v>0.01120210555429359</v>
-      </c>
-      <c r="T13">
-        <v>0.01120210555429359</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.3379906666666667</v>
+      </c>
+      <c r="H14">
+        <v>1.013972</v>
+      </c>
+      <c r="I14">
+        <v>0.006175116010583175</v>
+      </c>
+      <c r="J14">
+        <v>0.006175116010583175</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>218.9722396666667</v>
+      </c>
+      <c r="N14">
+        <v>656.9167190000001</v>
+      </c>
+      <c r="O14">
+        <v>0.9460661569256378</v>
+      </c>
+      <c r="P14">
+        <v>0.9460661569256379</v>
+      </c>
+      <c r="Q14">
+        <v>74.0105732664298</v>
+      </c>
+      <c r="R14">
+        <v>666.0951593978681</v>
+      </c>
+      <c r="S14">
+        <v>0.0058420682727024</v>
+      </c>
+      <c r="T14">
+        <v>0.005842068272702401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.3379906666666667</v>
+      </c>
+      <c r="H15">
+        <v>1.013972</v>
+      </c>
+      <c r="I15">
+        <v>0.006175116010583175</v>
+      </c>
+      <c r="J15">
+        <v>0.006175116010583175</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>5.232695</v>
+      </c>
+      <c r="N15">
+        <v>15.698085</v>
+      </c>
+      <c r="O15">
+        <v>0.02260777739018391</v>
+      </c>
+      <c r="P15">
+        <v>0.02260777739018392</v>
+      </c>
+      <c r="Q15">
+        <v>1.768602071513333</v>
+      </c>
+      <c r="R15">
+        <v>15.91741864362</v>
+      </c>
+      <c r="S15">
+        <v>0.000139605648125825</v>
+      </c>
+      <c r="T15">
+        <v>0.000139605648125825</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.3379906666666667</v>
+      </c>
+      <c r="H16">
+        <v>1.013972</v>
+      </c>
+      <c r="I16">
+        <v>0.006175116010583175</v>
+      </c>
+      <c r="J16">
+        <v>0.006175116010583175</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.718869666666667</v>
+      </c>
+      <c r="N16">
+        <v>11.156609</v>
+      </c>
+      <c r="O16">
+        <v>0.01606731857429249</v>
+      </c>
+      <c r="P16">
+        <v>0.0160673185742925</v>
+      </c>
+      <c r="Q16">
+        <v>1.256943237883111</v>
+      </c>
+      <c r="R16">
+        <v>11.312489140948</v>
+      </c>
+      <c r="S16">
+        <v>9.921755617525401E-05</v>
+      </c>
+      <c r="T16">
+        <v>9.921755617525403E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.3379906666666667</v>
+      </c>
+      <c r="H17">
+        <v>1.013972</v>
+      </c>
+      <c r="I17">
+        <v>0.006175116010583175</v>
+      </c>
+      <c r="J17">
+        <v>0.006175116010583175</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.531721333333333</v>
+      </c>
+      <c r="N17">
+        <v>10.595164</v>
+      </c>
+      <c r="O17">
+        <v>0.01525874710988573</v>
+      </c>
+      <c r="P17">
+        <v>0.01525874710988573</v>
+      </c>
+      <c r="Q17">
+        <v>1.193688847934222</v>
+      </c>
+      <c r="R17">
+        <v>10.743199631408</v>
+      </c>
+      <c r="S17">
+        <v>9.422453357969514E-05</v>
+      </c>
+      <c r="T17">
+        <v>9.422453357969516E-05</v>
       </c>
     </row>
   </sheetData>
